--- a/xlsx/洛杉矶县_intext.xlsx
+++ b/xlsx/洛杉矶县_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="467">
   <si>
     <t>洛杉矶县</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>政策_政策_加州_洛杉矶县</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>2010年美國人口普查</t>
+    <t>2010年美国人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6</t>
@@ -53,9 +53,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
@@ -77,13 +74,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2010年人口普查</t>
+    <t>美国2010年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>歐裔美國人</t>
+    <t>欧裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
@@ -101,25 +98,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A2%E7%A9%8D%E6%9C%80%E5%A4%A7%E7%B8%A3%E4%BB%BD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國面積最大縣份列表</t>
+    <t>美国面积最大县份列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E5%88%A9%E9%96%80%E8%92%82%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖克利門蒂島</t>
+    <t>圣克利门蒂岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A1%E5%A1%94%E5%88%A9%E5%A8%9C%E5%B2%9B</t>
@@ -149,31 +146,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2000年人口普查</t>
+    <t>美国2000年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E7%81%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>長灘 (加利福尼亞州)</t>
+    <t>长滩 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E4%BB%A3%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫代爾 (加利福尼亞州)</t>
+    <t>格伦代尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E5%88%A9%E5%A1%94</t>
   </si>
   <si>
-    <t>聖塔克拉利塔</t>
+    <t>圣塔克拉利塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%8E%AB%E7%BA%B3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -185,13 +182,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%AB%9A%E8%B0%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>棕櫚谷 (加利福尼亞州)</t>
+    <t>棕榈谷 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%80%AB%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>托倫斯 (加利福尼亞州)</t>
+    <t>托伦斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E8%90%A8%E8%BF%AA%E7%BA%B3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -203,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E9%96%8B%E6%96%AF%E7%89%B9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蘭開斯特 (加利福尼亞州)</t>
+    <t>兰开斯特 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%B0%94%E8%92%99%E5%9C%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -233,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E5%B8%82</t>
   </si>
   <si>
-    <t>貝爾市</t>
+    <t>贝尔市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%94%E8%8A%B1%E5%9B%AD</t>
@@ -335,7 +332,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%BE%85%E7%B6%AD%E4%BA%9E(%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙羅維亞(加州)</t>
+    <t>蒙罗维亚(加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E5%85%AC%E5%9B%AD</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%91%AA%E5%88%A9%E8%AB%BE(%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖瑪利諾(加州)</t>
+    <t>圣玛利诺(加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%8F%B2%E6%96%AF%E6%99%AE%E6%9E%97%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -401,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%89%BE%E7%88%BE%E8%92%99%E5%9C%B0</t>
   </si>
   <si>
-    <t>南艾爾蒙地</t>
+    <t>南艾尔蒙地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E8%8E%AB%E5%B0%BC%E5%8D%A1</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%BD%E8%90%8A%E5%A1%A2</t>
   </si>
   <si>
-    <t>西好萊塢</t>
+    <t>西好莱坞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B9%96%E6%9D%91</t>
@@ -449,97 +446,91 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1890%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1890年人口普查</t>
+    <t>美国1890年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1900年人口普查</t>
+    <t>美国1900年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1910年人口普查</t>
+    <t>美国1910年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1920年人口普查</t>
+    <t>美国1920年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1930年人口普查</t>
+    <t>美国1930年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1940年人口普查</t>
+    <t>美国1940年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1950年人口普查</t>
+    <t>美国1950年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1960年人口普查</t>
+    <t>美国1960年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1970年人口普查</t>
+    <t>美国1970年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1980年人口普查</t>
+    <t>美国1980年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1990年人口普查</t>
+    <t>美国1990年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非裔美國人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%9F%E8%91%97</t>
   </si>
   <si>
-    <t>美國土著</t>
+    <t>美国土著</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞裔美國人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F</t>
   </si>
   <si>
-    <t>種族</t>
+    <t>种族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E8%A1%80%E5%85%92</t>
   </si>
   <si>
-    <t>混血兒</t>
+    <t>混血儿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
@@ -551,43 +542,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>德國人</t>
+    <t>德国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E4%BA%BA</t>
   </si>
   <si>
-    <t>愛爾蘭人</t>
+    <t>爱尔兰人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>英國人</t>
+    <t>英国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E4%BA%BA</t>
   </si>
   <si>
-    <t>義大利人</t>
+    <t>义大利人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%96%E5%8A%A0%E7%A5%BF%E8%AA%9E</t>
   </si>
   <si>
-    <t>他加祿語</t>
+    <t>他加禄语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87</t>
@@ -599,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%96%87</t>
   </si>
   <si>
-    <t>韓文</t>
+    <t>韩文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A%E8%AF%AD</t>
@@ -623,19 +614,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E7%AA%AE%E7%B7%9A</t>
   </si>
   <si>
-    <t>貧窮線</t>
+    <t>贫穷线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA</t>
   </si>
   <si>
-    <t>退伍軍人</t>
+    <t>退伍军人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>華人</t>
+    <t>华人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE%E4%BA%BA</t>
@@ -647,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>韓國人</t>
+    <t>韩国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E4%BA%BA</t>
@@ -671,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>泰國人</t>
+    <t>泰国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%91%A9%E4%BA%9A%E4%BA%BA</t>
@@ -725,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E9%80%89%E4%B8%BE</t>
@@ -737,19 +728,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>加利福尼亞州歷史</t>
+    <t>加利福尼亚州历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿拉米達縣</t>
+    <t>阿拉米达县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B4%BE%E6%81%A9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -767,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布特郡 (加利福尼亞州)</t>
+    <t>布特郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%9F%A6%E6%8B%89%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -785,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康特拉科斯塔縣 (加利福尼亞州)</t>
+    <t>康特拉科斯塔县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E8%AF%BA%E7%89%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -803,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%9B%B7%E6%96%AF%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費雷斯諾縣 (加利福尼亞州)</t>
+    <t>费雷斯诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E4%BC%A6%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -815,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洪堡縣 (加利福尼亞州)</t>
+    <t>洪堡县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%9A%AE%E9%87%8C%E5%B0%94%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -845,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (加利福尼亞州)</t>
+    <t>莱克县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -857,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬德拉縣 (加利福尼亞州)</t>
+    <t>马德拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9E%97%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -881,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%A1%9E%E5%BE%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默塞德縣 (加利福尼亞州)</t>
+    <t>默塞德县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%A4%9A%E5%85%8B%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -899,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E9%9B%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙特雷縣 (加利福尼亞州)</t>
+    <t>蒙特雷县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95%E5%8E%BF</t>
@@ -911,13 +902,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>內華達縣 (加利福尼亞州)</t>
+    <t>内华达县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E7%91%9F%E5%8E%BF</t>
@@ -935,25 +926,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E5%B0%BC%E6%89%98%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝尼托縣 (加利福尼亞州)</t>
+    <t>圣贝尼托县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣 (加利福尼亞州)</t>
+    <t>圣贝纳迪诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥郡 (加利福尼亞州)</t>
+    <t>圣地牙哥郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
@@ -965,31 +956,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖華金縣</t>
+    <t>圣华金县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E6%B3%A2%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯波縣 (加利福尼亞州)</t>
+    <t>圣路易斯-奥比斯波县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%81%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬刁郡 (加利福尼亞州)</t>
+    <t>圣马刁郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣 (加利福尼亞州)</t>
+    <t>圣塔克拉拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E5%85%8B%E9%B2%81%E5%85%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1007,7 +998,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝拉縣 (加利福尼亞州)</t>
+    <t>谢拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%96%AF%E5%9F%BA%E5%B0%A4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1073,7 +1064,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E6%B4%9B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>優洛縣 (加利福尼亞州)</t>
+    <t>优洛县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1103,13 +1094,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E6%BB%A9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>长滩 (加利福尼亚州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BE%B7%E6%96%AF%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫德斯托 (加利福尼亞州)</t>
+    <t>莫德斯托 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1127,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費利蒙 (加利福尼亞州)</t>
+    <t>费利蒙 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B2%83%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1145,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E6%9B%BE%E5%BE%B7%E5%A5%A7%E5%85%8B%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紹曾德奧克斯 (加利福尼亞州)</t>
+    <t>绍曾德奥克斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%B8%81_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1163,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1187,19 +1175,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬可斯 (加利福尼亞州)</t>
+    <t>圣马可斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B0%BC%E9%9F%A6%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1217,13 +1205,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安那翰 (加利福尼亞州)</t>
+    <t>安那翰 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐文 (加利福尼亞州)</t>
+    <t>欧文 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%8E%9B%E4%B8%BD%E4%BA%9A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1241,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖羅莎 (加利福尼亞州)</t>
+    <t>圣罗莎 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%A1%94%E5%8D%A2%E9%A9%AC</t>
@@ -1271,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A1%9E%E5%88%A9%E4%BA%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>維塞利亞 (加利福尼亞州)</t>
+    <t>维塞利亚 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1283,7 +1271,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤巴城 (加利福尼亞州)</t>
+    <t>尤巴城 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%8F%E5%B0%94</t>
@@ -1349,19 +1337,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>莫哈韋沙漠</t>
+    <t>莫哈韦沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>北加利福尼亞州</t>
+    <t>北加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%8D%8A%E5%B2%9B</t>
@@ -1379,13 +1367,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖華金谷</t>
+    <t>圣华金谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%85%E8%B0%B7</t>
@@ -1397,13 +1385,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>南加利福尼亞</t>
+    <t>南加利福尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1421,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1943,7 +1931,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>6</v>
@@ -1969,10 +1957,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>4</v>
@@ -1998,10 +1986,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -2027,10 +2015,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -2056,10 +2044,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -2085,10 +2073,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -2114,10 +2102,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -2143,10 +2131,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -2172,10 +2160,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -2201,10 +2189,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -2230,10 +2218,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -2259,10 +2247,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2288,10 +2276,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2317,10 +2305,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>11</v>
@@ -2346,10 +2334,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2375,10 +2363,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2404,10 +2392,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -2433,10 +2421,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2462,10 +2450,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2491,10 +2479,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2520,10 +2508,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2549,10 +2537,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2578,10 +2566,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2607,10 +2595,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2636,10 +2624,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -2665,10 +2653,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2694,10 +2682,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2723,10 +2711,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2752,10 +2740,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2781,10 +2769,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2810,10 +2798,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2839,10 +2827,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2868,10 +2856,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2897,10 +2885,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2926,10 +2914,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2955,10 +2943,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2984,10 +2972,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3013,10 +3001,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3042,10 +3030,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3071,10 +3059,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3100,10 +3088,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3129,10 +3117,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3158,10 +3146,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3187,10 +3175,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3216,10 +3204,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3245,10 +3233,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3274,10 +3262,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3303,10 +3291,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3332,10 +3320,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3361,10 +3349,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3390,10 +3378,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3419,10 +3407,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3448,10 +3436,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3477,10 +3465,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3506,10 +3494,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3535,10 +3523,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3564,10 +3552,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3593,10 +3581,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3622,10 +3610,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3651,10 +3639,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3680,10 +3668,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3709,10 +3697,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3738,10 +3726,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3767,10 +3755,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3796,10 +3784,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3825,10 +3813,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3854,10 +3842,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3883,10 +3871,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3912,10 +3900,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3941,10 +3929,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3970,10 +3958,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3999,10 +3987,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4028,10 +4016,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4057,10 +4045,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4086,10 +4074,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4115,10 +4103,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4144,10 +4132,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4173,10 +4161,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>42</v>
+      </c>
+      <c r="F83" t="s">
         <v>43</v>
-      </c>
-      <c r="F83" t="s">
-        <v>44</v>
       </c>
       <c r="G83" t="n">
         <v>7</v>
@@ -4231,10 +4219,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" t="s">
         <v>21</v>
-      </c>
-      <c r="F85" t="s">
-        <v>22</v>
       </c>
       <c r="G85" t="n">
         <v>4</v>
@@ -4260,10 +4248,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4289,10 +4277,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -4318,10 +4306,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4347,10 +4335,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4376,10 +4364,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4405,10 +4393,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -4434,10 +4422,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4463,10 +4451,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4492,10 +4480,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4521,10 +4509,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4550,10 +4538,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4579,10 +4567,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4608,10 +4596,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4637,10 +4625,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4666,10 +4654,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4695,10 +4683,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4724,10 +4712,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>4</v>
@@ -4753,10 +4741,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4782,10 +4770,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4811,10 +4799,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4840,10 +4828,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4869,10 +4857,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4898,10 +4886,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4927,10 +4915,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4956,10 +4944,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4985,10 +4973,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5014,10 +5002,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5043,10 +5031,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5072,10 +5060,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5101,10 +5089,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5130,10 +5118,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5159,10 +5147,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5188,10 +5176,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5217,10 +5205,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -5246,10 +5234,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" t="s">
         <v>13</v>
-      </c>
-      <c r="F120" t="s">
-        <v>14</v>
       </c>
       <c r="G120" t="n">
         <v>5</v>
@@ -5275,10 +5263,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>28</v>
+      </c>
+      <c r="F121" t="s">
         <v>29</v>
-      </c>
-      <c r="F121" t="s">
-        <v>30</v>
       </c>
       <c r="G121" t="n">
         <v>17</v>
@@ -5304,10 +5292,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5333,10 +5321,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -5362,10 +5350,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5391,10 +5379,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5420,10 +5408,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G126" t="n">
         <v>42</v>
@@ -5449,10 +5437,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5478,10 +5466,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5507,10 +5495,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5536,10 +5524,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5565,10 +5553,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5594,10 +5582,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5623,10 +5611,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5652,10 +5640,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5681,10 +5669,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5710,10 +5698,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5739,10 +5727,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5768,10 +5756,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5797,10 +5785,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5826,10 +5814,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5855,10 +5843,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5884,10 +5872,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5913,10 +5901,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5942,10 +5930,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5971,10 +5959,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6000,10 +5988,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6029,10 +6017,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6058,10 +6046,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6087,10 +6075,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6116,10 +6104,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6145,10 +6133,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6174,10 +6162,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6203,10 +6191,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6232,10 +6220,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6261,10 +6249,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6290,10 +6278,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6319,10 +6307,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6348,10 +6336,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6377,10 +6365,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6406,10 +6394,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6435,10 +6423,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6464,10 +6452,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6493,10 +6481,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6522,10 +6510,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6551,10 +6539,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6580,10 +6568,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6609,10 +6597,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G167" t="n">
         <v>4</v>
@@ -6638,10 +6626,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6667,10 +6655,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -6696,10 +6684,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6725,10 +6713,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6754,10 +6742,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6783,10 +6771,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6812,10 +6800,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6841,10 +6829,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6870,10 +6858,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6899,10 +6887,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6928,10 +6916,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6957,10 +6945,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6986,10 +6974,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7015,10 +7003,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7044,10 +7032,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7073,10 +7061,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7102,10 +7090,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7131,10 +7119,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7160,10 +7148,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>47</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7189,10 +7177,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>48</v>
+      </c>
+      <c r="F187" t="s">
         <v>49</v>
-      </c>
-      <c r="F187" t="s">
-        <v>50</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7218,10 +7206,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7247,10 +7235,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F189" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7276,10 +7264,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F190" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7305,10 +7293,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7334,10 +7322,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7363,10 +7351,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7392,10 +7380,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7421,10 +7409,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7450,10 +7438,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7479,10 +7467,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F197" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7508,10 +7496,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7537,10 +7525,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F199" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7566,10 +7554,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F200" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7595,10 +7583,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F201" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7624,10 +7612,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F202" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -7653,10 +7641,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F203" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7682,10 +7670,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F204" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7711,10 +7699,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F205" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7740,10 +7728,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F206" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7769,10 +7757,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F207" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7798,10 +7786,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F208" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7827,10 +7815,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F209" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7856,10 +7844,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F210" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7885,10 +7873,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F211" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7914,10 +7902,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F212" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7943,10 +7931,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F213" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7972,10 +7960,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F214" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8001,10 +7989,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F215" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8030,10 +8018,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F216" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8059,10 +8047,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F217" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8088,10 +8076,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F218" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8117,10 +8105,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F219" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8146,10 +8134,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F220" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8175,10 +8163,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F221" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8204,10 +8192,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F222" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8233,10 +8221,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8262,10 +8250,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8291,10 +8279,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F225" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8320,10 +8308,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8349,10 +8337,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8378,10 +8366,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8407,10 +8395,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8436,10 +8424,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F230" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8465,10 +8453,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>118</v>
+      </c>
+      <c r="F231" t="s">
         <v>119</v>
-      </c>
-      <c r="F231" t="s">
-        <v>120</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8494,10 +8482,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G232" t="n">
         <v>3</v>
@@ -8523,10 +8511,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8552,10 +8540,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8581,10 +8569,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8610,10 +8598,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F236" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8639,10 +8627,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F237" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8668,10 +8656,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8697,10 +8685,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G239" t="n">
         <v>3</v>
@@ -8726,10 +8714,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8755,10 +8743,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8784,10 +8772,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8813,10 +8801,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
